--- a/6) Апрель/911/911 Системное программирование_апрель.xlsx
+++ b/6) Апрель/911/911 Системное программирование_апрель.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\6) Апрель\911\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290C295-6A46-47D1-984E-969B42330FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F6E85F-9A5A-44A8-BFFA-44A3E185B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1515" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
   <si>
     <t>ФИО</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>10.04.2025</t>
+  </si>
+  <si>
+    <t>Лекция 12</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -955,13 +958,25 @@
       <c r="H33" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
